--- a/docs/Associado1-2/Planilha_DepEconomiaRelacoesInternacionais-Associado1-2-nelson.xlsx
+++ b/docs/Associado1-2/Planilha_DepEconomiaRelacoesInternacionais-Associado1-2-nelson.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="628"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="628" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CPPD 01-18" sheetId="1" r:id="rId1"/>
@@ -2514,6 +2514,222 @@
       <alignment horizontal="left" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="10" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="10" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="14" fontId="8" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
@@ -2522,14 +2738,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -2538,10 +2746,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
@@ -2562,208 +2766,36 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="10" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="10" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2790,16 +2822,72 @@
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2812,94 +2900,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3051,7 +3051,7 @@
         <xdr:cNvPr id="3" name="Grupo 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3070,7 +3070,7 @@
           <xdr:cNvPr id="1034" name="Imagem 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A040000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3082,7 +3082,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+                <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -3105,14 +3105,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3129,7 +3129,7 @@
           <xdr:cNvPr id="2" name="Imagem 1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3141,7 +3141,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+                <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -3475,7 +3475,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3517,7 +3517,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3540,8 +3540,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:W326"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62:E63"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15"/>
@@ -3564,14 +3564,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="105"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="130"/>
       <c r="G1" s="1"/>
       <c r="I1" s="15">
         <v>0</v>
@@ -3581,14 +3581,14 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="131" t="s">
         <v>437</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="108"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="133"/>
       <c r="G2" s="3"/>
       <c r="I2" s="15">
         <v>10</v>
@@ -3598,14 +3598,14 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="134" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="111"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="136"/>
       <c r="G3" s="3"/>
       <c r="I3" s="86">
         <f>F109</f>
@@ -3616,284 +3616,284 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1">
-      <c r="A4" s="91"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A5" s="112" t="s">
+      <c r="A5" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="113"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="114"/>
+      <c r="B5" s="138"/>
+      <c r="C5" s="138"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="139"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="115" t="s">
+      <c r="A6" s="140" t="s">
         <v>228</v>
       </c>
-      <c r="B6" s="115"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1">
-      <c r="A7" s="135" t="s">
+      <c r="A7" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="135"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A8" s="116" t="s">
+      <c r="A8" s="106" t="s">
         <v>321</v>
       </c>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="106" t="s">
         <v>320</v>
       </c>
-      <c r="B9" s="116"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
+      <c r="B9" s="106"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A10" s="116" t="s">
+      <c r="A10" s="106" t="s">
         <v>258</v>
       </c>
-      <c r="B10" s="116"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="106"/>
       <c r="G10" s="3"/>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A11" s="91"/>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
+      <c r="A11" s="92"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="90" t="s">
+      <c r="A12" s="141" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="90"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
+      <c r="B12" s="141"/>
+      <c r="C12" s="141"/>
+      <c r="D12" s="141"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="141"/>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:10" ht="16.350000000000001" customHeight="1">
-      <c r="A13" s="118" t="s">
+      <c r="A13" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="118"/>
-      <c r="C13" s="94" t="s">
+      <c r="B13" s="108"/>
+      <c r="C13" s="113" t="s">
         <v>442</v>
       </c>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:10" ht="16.350000000000001" customHeight="1">
-      <c r="A14" s="118" t="s">
+      <c r="A14" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="118"/>
-      <c r="C14" s="117" t="s">
+      <c r="B14" s="108"/>
+      <c r="C14" s="112" t="s">
         <v>120</v>
       </c>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="117"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:10" ht="16.350000000000001" customHeight="1">
-      <c r="A15" s="118" t="s">
+      <c r="A15" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="118"/>
-      <c r="C15" s="117" t="s">
+      <c r="B15" s="108"/>
+      <c r="C15" s="112" t="s">
         <v>122</v>
       </c>
-      <c r="D15" s="117"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="117"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="112"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:10" ht="16.350000000000001" customHeight="1">
-      <c r="A16" s="118" t="s">
+      <c r="A16" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="118"/>
-      <c r="C16" s="94">
+      <c r="B16" s="108"/>
+      <c r="C16" s="113">
         <v>169689</v>
       </c>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="113"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="16.350000000000001" customHeight="1">
-      <c r="A17" s="92" t="s">
+      <c r="A17" s="144" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="92"/>
-      <c r="C17" s="88">
+      <c r="B17" s="144"/>
+      <c r="C17" s="142">
         <v>42500</v>
       </c>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="142"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="92" t="s">
+      <c r="A18" s="144" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="92"/>
-      <c r="C18" s="95" t="s">
+      <c r="B18" s="144"/>
+      <c r="C18" s="146" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="95"/>
+      <c r="D18" s="146"/>
+      <c r="E18" s="146"/>
+      <c r="F18" s="146"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="92" t="s">
+      <c r="A19" s="144" t="s">
         <v>224</v>
       </c>
-      <c r="B19" s="92"/>
-      <c r="C19" s="89" t="s">
+      <c r="B19" s="144"/>
+      <c r="C19" s="143" t="s">
         <v>218</v>
       </c>
-      <c r="D19" s="89"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
+      <c r="D19" s="143"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="143"/>
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A20" s="92" t="s">
+      <c r="A20" s="144" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="92"/>
-      <c r="C20" s="93">
+      <c r="B20" s="144"/>
+      <c r="C20" s="145">
         <v>40597</v>
       </c>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" ht="16.350000000000001" customHeight="1">
-      <c r="A21" s="118" t="s">
+      <c r="A21" s="108" t="s">
         <v>223</v>
       </c>
-      <c r="B21" s="118"/>
-      <c r="C21" s="94" t="s">
+      <c r="B21" s="108"/>
+      <c r="C21" s="113" t="s">
         <v>222</v>
       </c>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="113"/>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A22" s="91"/>
-      <c r="B22" s="91"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="91"/>
-      <c r="F22" s="91"/>
+      <c r="A22" s="92"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" ht="16.350000000000001" customHeight="1">
-      <c r="A23" s="136" t="s">
+      <c r="A23" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="136"/>
+      <c r="B23" s="109"/>
       <c r="C23" s="43">
         <v>42500</v>
       </c>
-      <c r="D23" s="96" t="s">
+      <c r="D23" s="147" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="96"/>
+      <c r="E23" s="147"/>
       <c r="F23" s="44">
         <v>45596</v>
       </c>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="97" t="s">
+      <c r="A24" s="148" t="s">
         <v>361</v>
       </c>
-      <c r="B24" s="98"/>
-      <c r="C24" s="98"/>
-      <c r="D24" s="98"/>
-      <c r="E24" s="98"/>
-      <c r="F24" s="99"/>
+      <c r="B24" s="149"/>
+      <c r="C24" s="149"/>
+      <c r="D24" s="149"/>
+      <c r="E24" s="149"/>
+      <c r="F24" s="150"/>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A25" s="91"/>
-      <c r="B25" s="91"/>
-      <c r="C25" s="91"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="91"/>
+      <c r="A25" s="92"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="90" t="s">
+      <c r="A26" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="90"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
+      <c r="B26" s="141"/>
+      <c r="C26" s="141"/>
+      <c r="D26" s="141"/>
+      <c r="E26" s="141"/>
+      <c r="F26" s="141"/>
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" ht="29.1" customHeight="1">
-      <c r="A27" s="137" t="s">
+      <c r="A27" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="137"/>
-      <c r="C27" s="137"/>
-      <c r="D27" s="137"/>
-      <c r="E27" s="137"/>
-      <c r="F27" s="137"/>
+      <c r="B27" s="110"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="110"/>
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" ht="16.350000000000001" customHeight="1">
@@ -3907,7 +3907,7 @@
       <c r="D28" s="8"/>
       <c r="E28" s="9"/>
       <c r="F28" s="45">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="G28" s="3"/>
     </row>
@@ -3922,7 +3922,7 @@
       <c r="D29" s="79"/>
       <c r="E29" s="80"/>
       <c r="F29" s="46">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G29" s="3"/>
     </row>
@@ -3949,7 +3949,10 @@
       <c r="C31" s="79"/>
       <c r="D31" s="79"/>
       <c r="E31" s="80"/>
-      <c r="F31" s="46"/>
+      <c r="F31" s="46">
+        <f>70/15</f>
+        <v>4.666666666666667</v>
+      </c>
       <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7" ht="16.350000000000001" customHeight="1">
@@ -3969,76 +3972,76 @@
       <c r="A33" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="B33" s="130" t="s">
+      <c r="B33" s="103" t="s">
         <v>318</v>
       </c>
-      <c r="C33" s="131"/>
-      <c r="D33" s="131"/>
+      <c r="C33" s="104"/>
+      <c r="D33" s="104"/>
       <c r="E33" s="80"/>
       <c r="F33" s="46">
-        <f>62*0.5+2</f>
-        <v>33</v>
+        <f>25+45+3+1+6</f>
+        <v>80</v>
       </c>
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" ht="34.5" customHeight="1">
-      <c r="A34" s="134" t="s">
+      <c r="A34" s="111" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="134"/>
-      <c r="C34" s="134"/>
-      <c r="D34" s="134"/>
-      <c r="E34" s="134"/>
+      <c r="B34" s="111"/>
+      <c r="C34" s="111"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="111"/>
       <c r="F34" s="16">
         <f>IF(F33&lt;=8,0,IF(F33&gt;8,F33-8))</f>
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A35" s="91"/>
-      <c r="B35" s="91"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="91"/>
-      <c r="F35" s="91"/>
+      <c r="A35" s="92"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="92"/>
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" ht="16.350000000000001" customHeight="1">
-      <c r="A36" s="134" t="s">
+      <c r="A36" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="134"/>
-      <c r="C36" s="134"/>
-      <c r="D36" s="134"/>
-      <c r="E36" s="134"/>
+      <c r="B36" s="111"/>
+      <c r="C36" s="111"/>
+      <c r="D36" s="111"/>
+      <c r="E36" s="111"/>
       <c r="F36" s="11">
         <f>SUM(F28:F32)+IF(F33&lt;8,F33,8)</f>
-        <v>64</v>
+        <v>214.66666666666666</v>
       </c>
       <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" ht="15" customHeight="1">
-      <c r="A37" s="127" t="s">
+      <c r="A37" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="127"/>
-      <c r="C37" s="127"/>
-      <c r="D37" s="127"/>
-      <c r="E37" s="127"/>
+      <c r="B37" s="107"/>
+      <c r="C37" s="107"/>
+      <c r="D37" s="107"/>
+      <c r="E37" s="107"/>
       <c r="F37" s="47">
         <v>32</v>
       </c>
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" ht="33" customHeight="1">
-      <c r="A38" s="127" t="s">
+      <c r="A38" s="107" t="s">
         <v>260</v>
       </c>
-      <c r="B38" s="127"/>
-      <c r="C38" s="127"/>
-      <c r="D38" s="127"/>
-      <c r="E38" s="127"/>
+      <c r="B38" s="107"/>
+      <c r="C38" s="107"/>
+      <c r="D38" s="107"/>
+      <c r="E38" s="107"/>
       <c r="F38" s="10">
         <f>IF(C19="20 horas",IF(F36&gt;F37,(F36-F37)/2,0),0)</f>
         <v>0</v>
@@ -4046,23 +4049,23 @@
       <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A39" s="91"/>
-      <c r="B39" s="91"/>
-      <c r="C39" s="91"/>
-      <c r="D39" s="91"/>
-      <c r="E39" s="91"/>
-      <c r="F39" s="91"/>
+      <c r="A39" s="92"/>
+      <c r="B39" s="92"/>
+      <c r="C39" s="92"/>
+      <c r="D39" s="92"/>
+      <c r="E39" s="92"/>
+      <c r="F39" s="92"/>
       <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="133" t="s">
+      <c r="A40" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="133"/>
-      <c r="C40" s="133"/>
-      <c r="D40" s="133"/>
-      <c r="E40" s="133"/>
-      <c r="F40" s="133"/>
+      <c r="B40" s="91"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="91"/>
+      <c r="E40" s="91"/>
+      <c r="F40" s="91"/>
       <c r="G40" s="3"/>
     </row>
     <row r="41" spans="1:7" ht="30">
@@ -4483,40 +4486,40 @@
       <c r="G61" s="3"/>
     </row>
     <row r="62" spans="1:13" ht="30" customHeight="1">
-      <c r="A62" s="145" t="s">
+      <c r="A62" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="B62" s="143" t="s">
+      <c r="B62" s="95" t="s">
         <v>393</v>
       </c>
-      <c r="C62" s="138" t="s">
+      <c r="C62" s="88" t="s">
         <v>392</v>
       </c>
-      <c r="D62" s="140"/>
-      <c r="E62" s="147">
-        <v>48</v>
-      </c>
-      <c r="F62" s="149">
+      <c r="D62" s="90"/>
+      <c r="E62" s="99">
+        <v>68</v>
+      </c>
+      <c r="F62" s="101">
         <f>E62/20</f>
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="G62" s="3"/>
     </row>
     <row r="63" spans="1:13" ht="92.25" customHeight="1">
-      <c r="A63" s="146"/>
-      <c r="B63" s="144"/>
-      <c r="C63" s="141" t="s">
+      <c r="A63" s="98"/>
+      <c r="B63" s="96"/>
+      <c r="C63" s="93" t="s">
         <v>443</v>
       </c>
-      <c r="D63" s="142"/>
-      <c r="E63" s="148"/>
-      <c r="F63" s="150"/>
+      <c r="D63" s="94"/>
+      <c r="E63" s="100"/>
+      <c r="F63" s="102"/>
       <c r="G63" s="3"/>
       <c r="M63" s="2" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="105">
+    <row r="64" spans="1:13" ht="90">
       <c r="A64" s="77" t="s">
         <v>282</v>
       </c>
@@ -4634,11 +4637,11 @@
         <v>0.25</v>
       </c>
       <c r="E69" s="73">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F69" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G69" s="3"/>
     </row>
@@ -4779,60 +4782,60 @@
       <c r="G76" s="3"/>
     </row>
     <row r="77" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A77" s="91"/>
-      <c r="B77" s="91"/>
-      <c r="C77" s="91"/>
-      <c r="D77" s="91"/>
-      <c r="E77" s="91"/>
-      <c r="F77" s="91"/>
+      <c r="A77" s="92"/>
+      <c r="B77" s="92"/>
+      <c r="C77" s="92"/>
+      <c r="D77" s="92"/>
+      <c r="E77" s="92"/>
+      <c r="F77" s="92"/>
       <c r="G77" s="3"/>
     </row>
     <row r="78" spans="1:21" ht="29.85" customHeight="1">
-      <c r="A78" s="134" t="s">
+      <c r="A78" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="B78" s="134"/>
-      <c r="C78" s="134"/>
-      <c r="D78" s="134"/>
-      <c r="E78" s="134"/>
+      <c r="B78" s="111"/>
+      <c r="C78" s="111"/>
+      <c r="D78" s="111"/>
+      <c r="E78" s="111"/>
       <c r="F78" s="17">
         <f>SUM(F42:F76)</f>
-        <v>47.4</v>
+        <v>47.9</v>
       </c>
       <c r="G78" s="3"/>
       <c r="U78" s="18"/>
     </row>
     <row r="79" spans="1:21" ht="29.45" customHeight="1">
-      <c r="A79" s="127" t="s">
+      <c r="A79" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="B79" s="127"/>
-      <c r="C79" s="127"/>
-      <c r="D79" s="127"/>
-      <c r="E79" s="127"/>
+      <c r="B79" s="107"/>
+      <c r="C79" s="107"/>
+      <c r="D79" s="107"/>
+      <c r="E79" s="107"/>
       <c r="F79" s="47">
         <v>25</v>
       </c>
       <c r="G79" s="3"/>
     </row>
     <row r="80" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A80" s="91"/>
-      <c r="B80" s="91"/>
-      <c r="C80" s="91"/>
-      <c r="D80" s="91"/>
-      <c r="E80" s="91"/>
-      <c r="F80" s="91"/>
+      <c r="A80" s="92"/>
+      <c r="B80" s="92"/>
+      <c r="C80" s="92"/>
+      <c r="D80" s="92"/>
+      <c r="E80" s="92"/>
+      <c r="F80" s="92"/>
       <c r="G80" s="3"/>
     </row>
     <row r="81" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A81" s="133" t="s">
+      <c r="A81" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="B81" s="133"/>
-      <c r="C81" s="133"/>
-      <c r="D81" s="133"/>
-      <c r="E81" s="133"/>
-      <c r="F81" s="133"/>
+      <c r="B81" s="91"/>
+      <c r="C81" s="91"/>
+      <c r="D81" s="91"/>
+      <c r="E81" s="91"/>
+      <c r="F81" s="91"/>
       <c r="G81" s="3"/>
     </row>
     <row r="82" spans="1:7" ht="30">
@@ -4867,10 +4870,12 @@
       <c r="D83" s="71">
         <v>0.25</v>
       </c>
-      <c r="E83" s="82"/>
+      <c r="E83" s="82">
+        <v>1</v>
+      </c>
       <c r="F83" s="14">
         <f>D83*E83</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G83" s="3"/>
     </row>
@@ -4887,10 +4892,12 @@
       <c r="D84" s="13">
         <v>0.25</v>
       </c>
-      <c r="E84" s="73"/>
+      <c r="E84" s="73">
+        <v>2</v>
+      </c>
       <c r="F84" s="16">
         <f t="shared" ref="F84:F103" si="2">D84*E84</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G84" s="3"/>
     </row>
@@ -5007,9 +5014,9 @@
       <c r="B90" s="72" t="s">
         <v>349</v>
       </c>
-      <c r="C90" s="138"/>
-      <c r="D90" s="139"/>
-      <c r="E90" s="140"/>
+      <c r="C90" s="88"/>
+      <c r="D90" s="89"/>
+      <c r="E90" s="90"/>
       <c r="F90" s="16"/>
       <c r="G90" s="3"/>
     </row>
@@ -5047,11 +5054,11 @@
         <v>2</v>
       </c>
       <c r="E92" s="73">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F92" s="16">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G92" s="3"/>
     </row>
@@ -5090,12 +5097,10 @@
       <c r="D94" s="13">
         <v>2</v>
       </c>
-      <c r="E94" s="73">
-        <v>1</v>
-      </c>
+      <c r="E94" s="73"/>
       <c r="F94" s="16">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3"/>
     </row>
@@ -5146,9 +5151,9 @@
       <c r="B97" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="C97" s="138"/>
-      <c r="D97" s="139"/>
-      <c r="E97" s="140"/>
+      <c r="C97" s="88"/>
+      <c r="D97" s="89"/>
+      <c r="E97" s="90"/>
       <c r="F97" s="16">
         <f>IF(SUM(F91:F96)&lt;=10,SUM(F91:F96),IF(SUM(F91:F96)&gt;10,10))</f>
         <v>10</v>
@@ -5162,9 +5167,9 @@
       <c r="B98" s="72" t="s">
         <v>350</v>
       </c>
-      <c r="C98" s="138"/>
-      <c r="D98" s="139"/>
-      <c r="E98" s="140"/>
+      <c r="C98" s="88"/>
+      <c r="D98" s="89"/>
+      <c r="E98" s="90"/>
       <c r="F98" s="16"/>
       <c r="G98" s="3"/>
     </row>
@@ -5285,9 +5290,9 @@
       <c r="B104" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="C104" s="138"/>
-      <c r="D104" s="139"/>
-      <c r="E104" s="140"/>
+      <c r="C104" s="88"/>
+      <c r="D104" s="89"/>
+      <c r="E104" s="90"/>
       <c r="F104" s="16">
         <f>IF(SUM(F99:F103)&lt;=10,SUM(F99:F103),IF(SUM(F99:F103)&gt;10,10))</f>
         <v>0</v>
@@ -5297,71 +5302,71 @@
       <c r="K104" s="15"/>
     </row>
     <row r="105" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A105" s="119"/>
-      <c r="B105" s="91"/>
-      <c r="C105" s="91"/>
-      <c r="D105" s="91"/>
-      <c r="E105" s="91"/>
-      <c r="F105" s="120"/>
+      <c r="A105" s="118"/>
+      <c r="B105" s="92"/>
+      <c r="C105" s="92"/>
+      <c r="D105" s="92"/>
+      <c r="E105" s="92"/>
+      <c r="F105" s="119"/>
       <c r="G105" s="3"/>
     </row>
     <row r="106" spans="1:11" ht="42.75" customHeight="1">
-      <c r="A106" s="134" t="s">
+      <c r="A106" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="B106" s="134"/>
-      <c r="C106" s="134"/>
-      <c r="D106" s="134"/>
-      <c r="E106" s="134"/>
+      <c r="B106" s="111"/>
+      <c r="C106" s="111"/>
+      <c r="D106" s="111"/>
+      <c r="E106" s="111"/>
       <c r="F106" s="19">
         <f>SUM(F83:F89)+F97+F104</f>
-        <v>24.694444444444443</v>
+        <v>25.444444444444443</v>
       </c>
       <c r="G106" s="3"/>
     </row>
     <row r="107" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A107" s="91"/>
-      <c r="B107" s="91"/>
-      <c r="C107" s="91"/>
-      <c r="D107" s="91"/>
-      <c r="E107" s="91"/>
-      <c r="F107" s="91"/>
+      <c r="A107" s="92"/>
+      <c r="B107" s="92"/>
+      <c r="C107" s="92"/>
+      <c r="D107" s="92"/>
+      <c r="E107" s="92"/>
+      <c r="F107" s="92"/>
       <c r="G107" s="3"/>
     </row>
     <row r="108" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A108" s="133" t="s">
+      <c r="A108" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B108" s="133"/>
-      <c r="C108" s="133"/>
-      <c r="D108" s="133"/>
-      <c r="E108" s="133"/>
-      <c r="F108" s="133"/>
+      <c r="B108" s="91"/>
+      <c r="C108" s="91"/>
+      <c r="D108" s="91"/>
+      <c r="E108" s="91"/>
+      <c r="F108" s="91"/>
       <c r="G108" s="3"/>
     </row>
     <row r="109" spans="1:11" ht="30" customHeight="1">
       <c r="A109" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="B109" s="127" t="s">
+      <c r="B109" s="107" t="s">
         <v>441</v>
       </c>
-      <c r="C109" s="127"/>
-      <c r="D109" s="127"/>
-      <c r="E109" s="127"/>
+      <c r="C109" s="107"/>
+      <c r="D109" s="107"/>
+      <c r="E109" s="107"/>
       <c r="F109" s="48">
         <v>4.4000000000000004</v>
       </c>
       <c r="G109" s="3"/>
     </row>
     <row r="110" spans="1:11" ht="15" customHeight="1">
-      <c r="A110" s="134" t="s">
+      <c r="A110" s="111" t="s">
         <v>216</v>
       </c>
-      <c r="B110" s="134"/>
-      <c r="C110" s="134"/>
-      <c r="D110" s="134"/>
-      <c r="E110" s="134"/>
+      <c r="B110" s="111"/>
+      <c r="C110" s="111"/>
+      <c r="D110" s="111"/>
+      <c r="E110" s="111"/>
       <c r="F110" s="19">
         <f>IF((I3-(I2+I1)/2)&gt;0,((I3-(I2+I1)/2)/(I2-I1))*20,0)</f>
         <v>0</v>
@@ -5377,67 +5382,67 @@
       <c r="G111" s="3"/>
     </row>
     <row r="112" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A112" s="133" t="s">
+      <c r="A112" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="B112" s="133"/>
-      <c r="C112" s="133"/>
-      <c r="D112" s="133"/>
-      <c r="E112" s="133"/>
-      <c r="F112" s="133"/>
+      <c r="B112" s="91"/>
+      <c r="C112" s="91"/>
+      <c r="D112" s="91"/>
+      <c r="E112" s="91"/>
+      <c r="F112" s="91"/>
       <c r="G112" s="3"/>
     </row>
     <row r="113" spans="1:19" ht="20.100000000000001" customHeight="1">
-      <c r="A113" s="124" t="s">
+      <c r="A113" s="114" t="s">
         <v>314</v>
       </c>
-      <c r="B113" s="125"/>
-      <c r="C113" s="125"/>
-      <c r="D113" s="125"/>
-      <c r="E113" s="125"/>
-      <c r="F113" s="126"/>
+      <c r="B113" s="115"/>
+      <c r="C113" s="115"/>
+      <c r="D113" s="115"/>
+      <c r="E113" s="115"/>
+      <c r="F113" s="116"/>
       <c r="G113" s="3"/>
     </row>
     <row r="114" spans="1:19" ht="15" customHeight="1">
-      <c r="A114" s="130" t="s">
+      <c r="A114" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="B114" s="131"/>
-      <c r="C114" s="131"/>
-      <c r="D114" s="131"/>
-      <c r="E114" s="132"/>
+      <c r="B114" s="104"/>
+      <c r="C114" s="104"/>
+      <c r="D114" s="104"/>
+      <c r="E114" s="117"/>
       <c r="F114" s="49"/>
       <c r="G114" s="3"/>
     </row>
     <row r="115" spans="1:19" ht="30" customHeight="1">
-      <c r="A115" s="130" t="s">
+      <c r="A115" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B115" s="131"/>
-      <c r="C115" s="131"/>
-      <c r="D115" s="131"/>
-      <c r="E115" s="132"/>
+      <c r="B115" s="104"/>
+      <c r="C115" s="104"/>
+      <c r="D115" s="104"/>
+      <c r="E115" s="117"/>
       <c r="F115" s="49"/>
       <c r="G115" s="3"/>
     </row>
     <row r="116" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A116" s="128"/>
-      <c r="B116" s="128"/>
-      <c r="C116" s="128"/>
-      <c r="D116" s="128"/>
-      <c r="E116" s="128"/>
-      <c r="F116" s="129"/>
+      <c r="A116" s="123"/>
+      <c r="B116" s="123"/>
+      <c r="C116" s="123"/>
+      <c r="D116" s="123"/>
+      <c r="E116" s="123"/>
+      <c r="F116" s="124"/>
       <c r="G116" s="3"/>
     </row>
     <row r="117" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A117" s="124" t="s">
+      <c r="A117" s="114" t="s">
         <v>313</v>
       </c>
-      <c r="B117" s="125"/>
-      <c r="C117" s="125"/>
-      <c r="D117" s="125"/>
-      <c r="E117" s="125"/>
-      <c r="F117" s="126"/>
+      <c r="B117" s="115"/>
+      <c r="C117" s="115"/>
+      <c r="D117" s="115"/>
+      <c r="E117" s="115"/>
+      <c r="F117" s="116"/>
       <c r="G117" s="3"/>
     </row>
     <row r="118" spans="1:19" ht="16.350000000000001" customHeight="1">
@@ -5452,7 +5457,7 @@
       <c r="E118" s="80"/>
       <c r="F118" s="19">
         <f>IF(C19="20 horas",IF(F78+F115/2&gt;=F79,F36,IF(F38-(F79-T139)&lt;0,F36-2*F38,F37+2*(F38-(F79-T139)))),F36)</f>
-        <v>64</v>
+        <v>214.66666666666666</v>
       </c>
       <c r="G118" s="3"/>
       <c r="H118" s="23"/>
@@ -5469,7 +5474,7 @@
       <c r="E119" s="80"/>
       <c r="F119" s="19">
         <f>IF(F78&gt;=F79,F78,IF(F78+F115/2&gt;F79,F79,IF(F78+F115/2+F38&gt;F79,F79,F78+F115/2+F38)))</f>
-        <v>47.4</v>
+        <v>47.9</v>
       </c>
       <c r="G119" s="3"/>
       <c r="H119" s="23"/>
@@ -5478,15 +5483,15 @@
       <c r="A120" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="B120" s="130" t="s">
+      <c r="B120" s="103" t="s">
         <v>308</v>
       </c>
-      <c r="C120" s="131"/>
+      <c r="C120" s="104"/>
       <c r="D120" s="79"/>
       <c r="E120" s="80"/>
       <c r="F120" s="19">
         <f>F106</f>
-        <v>24.694444444444443</v>
+        <v>25.444444444444443</v>
       </c>
       <c r="G120" s="3"/>
       <c r="H120" s="23"/>
@@ -5512,48 +5517,48 @@
       <c r="H121" s="23"/>
     </row>
     <row r="122" spans="1:19" ht="16.350000000000001" customHeight="1">
-      <c r="A122" s="91"/>
-      <c r="B122" s="91"/>
-      <c r="C122" s="91"/>
-      <c r="D122" s="91"/>
-      <c r="E122" s="91"/>
-      <c r="F122" s="91"/>
+      <c r="A122" s="92"/>
+      <c r="B122" s="92"/>
+      <c r="C122" s="92"/>
+      <c r="D122" s="92"/>
+      <c r="E122" s="92"/>
+      <c r="F122" s="92"/>
       <c r="G122" s="3"/>
     </row>
     <row r="123" spans="1:19">
-      <c r="A123" s="134" t="s">
+      <c r="A123" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="B123" s="134"/>
-      <c r="C123" s="134"/>
-      <c r="D123" s="134"/>
-      <c r="E123" s="134"/>
+      <c r="B123" s="111"/>
+      <c r="C123" s="111"/>
+      <c r="D123" s="111"/>
+      <c r="E123" s="111"/>
       <c r="F123" s="19">
         <f>IF(T136&gt;=F124,T136,IF(T136+T137&gt;=F124,F124,T136+T137))</f>
-        <v>136.09444444444443</v>
+        <v>288.01111111111112</v>
       </c>
       <c r="G123" s="3"/>
     </row>
     <row r="124" spans="1:19" ht="20.100000000000001" customHeight="1">
-      <c r="A124" s="127" t="s">
+      <c r="A124" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="B124" s="127"/>
-      <c r="C124" s="127"/>
-      <c r="D124" s="127"/>
-      <c r="E124" s="127"/>
+      <c r="B124" s="107"/>
+      <c r="C124" s="107"/>
+      <c r="D124" s="107"/>
+      <c r="E124" s="107"/>
       <c r="F124" s="47">
         <v>70</v>
       </c>
       <c r="G124" s="24"/>
     </row>
     <row r="125" spans="1:19" ht="20.100000000000001" customHeight="1">
-      <c r="A125" s="91"/>
-      <c r="B125" s="91"/>
-      <c r="C125" s="91"/>
-      <c r="D125" s="91"/>
-      <c r="E125" s="91"/>
-      <c r="F125" s="91"/>
+      <c r="A125" s="92"/>
+      <c r="B125" s="92"/>
+      <c r="C125" s="92"/>
+      <c r="D125" s="92"/>
+      <c r="E125" s="92"/>
+      <c r="F125" s="92"/>
       <c r="G125" s="25"/>
       <c r="H125" s="25"/>
       <c r="I125" s="25"/>
@@ -5562,62 +5567,62 @@
       <c r="L125" s="25"/>
     </row>
     <row r="126" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A126" s="121" t="s">
+      <c r="A126" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="B126" s="122"/>
-      <c r="C126" s="122"/>
-      <c r="D126" s="122"/>
-      <c r="E126" s="122"/>
-      <c r="F126" s="123"/>
+      <c r="B126" s="121"/>
+      <c r="C126" s="121"/>
+      <c r="D126" s="121"/>
+      <c r="E126" s="121"/>
+      <c r="F126" s="122"/>
     </row>
     <row r="127" spans="1:19" ht="20.100000000000001" customHeight="1">
-      <c r="A127" s="124" t="s">
+      <c r="A127" s="114" t="s">
         <v>435</v>
       </c>
-      <c r="B127" s="125"/>
-      <c r="C127" s="125"/>
-      <c r="D127" s="125"/>
-      <c r="E127" s="125"/>
-      <c r="F127" s="126"/>
+      <c r="B127" s="115"/>
+      <c r="C127" s="115"/>
+      <c r="D127" s="115"/>
+      <c r="E127" s="115"/>
+      <c r="F127" s="116"/>
     </row>
     <row r="128" spans="1:19" ht="20.100000000000001" customHeight="1">
-      <c r="A128" s="127" t="s">
+      <c r="A128" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="B128" s="127"/>
-      <c r="C128" s="127"/>
-      <c r="D128" s="127"/>
-      <c r="E128" s="127"/>
+      <c r="B128" s="107"/>
+      <c r="C128" s="107"/>
+      <c r="D128" s="107"/>
+      <c r="E128" s="107"/>
       <c r="F128" s="84">
         <f>IF(F123&gt;F124,MIN(F123-F124,F36-F37),0)</f>
-        <v>32</v>
+        <v>182.66666666666666</v>
       </c>
     </row>
     <row r="129" spans="1:21" ht="29.1" customHeight="1">
-      <c r="A129" s="127" t="s">
+      <c r="A129" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="B129" s="127"/>
-      <c r="C129" s="127"/>
-      <c r="D129" s="127"/>
-      <c r="E129" s="127"/>
+      <c r="B129" s="107"/>
+      <c r="C129" s="107"/>
+      <c r="D129" s="107"/>
+      <c r="E129" s="107"/>
       <c r="F129" s="84">
         <f>IF(F123&gt;F124,MIN(F123-F124,F119-F79),0)</f>
-        <v>22.4</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="130" spans="1:21" ht="15" customHeight="1">
-      <c r="A130" s="100" t="s">
+      <c r="A130" s="125" t="s">
         <v>436</v>
       </c>
-      <c r="B130" s="101"/>
-      <c r="C130" s="101"/>
-      <c r="D130" s="101"/>
-      <c r="E130" s="102"/>
+      <c r="B130" s="126"/>
+      <c r="C130" s="126"/>
+      <c r="D130" s="126"/>
+      <c r="E130" s="127"/>
       <c r="F130" s="85">
         <f>IF(F124-F37-F79&lt;=F106+F121,F123-F124-(F120+F121-F124+F37+F79),SUMIF(F128:F129,"&gt;=0"))</f>
-        <v>54.399999999999991</v>
+        <v>205.56666666666666</v>
       </c>
     </row>
     <row r="131" spans="1:21">
@@ -5656,7 +5661,7 @@
     <row r="136" spans="1:21">
       <c r="T136" s="31">
         <f>IF(SUM(F118:F121)&gt;=F124,SUM(F118:F121),IF(SUM(F118:F121)&lt;F124,SUM(F118:F121)+F34))</f>
-        <v>136.09444444444443</v>
+        <v>288.01111111111112</v>
       </c>
       <c r="U136" s="6" t="s">
         <v>310</v>
@@ -5674,14 +5679,14 @@
     <row r="138" spans="1:21">
       <c r="T138" s="32">
         <f>IF(F36-F118&gt;=0,F118-F37,0)</f>
-        <v>32</v>
+        <v>182.66666666666666</v>
       </c>
       <c r="U138" s="6"/>
     </row>
     <row r="139" spans="1:21">
       <c r="T139" s="33">
         <f>F78+F115/2</f>
-        <v>47.4</v>
+        <v>47.9</v>
       </c>
       <c r="U139" s="6" t="s">
         <v>315</v>
@@ -6356,18 +6361,60 @@
   </sheetData>
   <sheetProtection password="8E9F" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="82">
-    <mergeCell ref="C98:E98"/>
-    <mergeCell ref="C97:E97"/>
-    <mergeCell ref="C104:E104"/>
-    <mergeCell ref="C90:E90"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A130:E130"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="A129:E129"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="A114:E114"/>
+    <mergeCell ref="A128:E128"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="A79:E79"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A106:E106"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="B109:E109"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="A115:E115"/>
+    <mergeCell ref="A110:E110"/>
+    <mergeCell ref="A123:E123"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="A8:F8"/>
@@ -6384,60 +6431,18 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="C13:F13"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A106:E106"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="B109:E109"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="A108:F108"/>
-    <mergeCell ref="A115:E115"/>
-    <mergeCell ref="A110:E110"/>
-    <mergeCell ref="A123:E123"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="A126:F126"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="A129:E129"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="A114:E114"/>
-    <mergeCell ref="A128:E128"/>
-    <mergeCell ref="A130:E130"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="C98:E98"/>
+    <mergeCell ref="C97:E97"/>
+    <mergeCell ref="C104:E104"/>
+    <mergeCell ref="C90:E90"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="C62:D62"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Clique em Cancelar e Selecione uma das Opções" promptTitle="Selecione a Unidade" sqref="C14:F14">
@@ -6466,7 +6471,7 @@
   <sheetPr codeName="Planilha2"/>
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -6482,20 +6487,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="43.5" customHeight="1">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="167" t="s">
         <v>259</v>
       </c>
-      <c r="B1" s="177"/>
-      <c r="C1" s="177"/>
-      <c r="D1" s="178"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="169"/>
       <c r="E1" s="50"/>
       <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:6" ht="18.2" customHeight="1">
-      <c r="A2" s="182"/>
-      <c r="B2" s="182"/>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
+      <c r="A2" s="172"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
       <c r="E2" s="50"/>
       <c r="F2" s="50"/>
     </row>
@@ -6516,462 +6521,462 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="171"/>
-      <c r="B4" s="171"/>
-      <c r="C4" s="171"/>
-      <c r="D4" s="171"/>
+      <c r="A4" s="157"/>
+      <c r="B4" s="157"/>
+      <c r="C4" s="157"/>
+      <c r="D4" s="157"/>
     </row>
     <row r="5" spans="1:6" ht="17.100000000000001" customHeight="1">
-      <c r="A5" s="184" t="s">
+      <c r="A5" s="166" t="s">
         <v>254</v>
       </c>
-      <c r="B5" s="184"/>
-      <c r="C5" s="184"/>
-      <c r="D5" s="184"/>
+      <c r="B5" s="166"/>
+      <c r="C5" s="166"/>
+      <c r="D5" s="166"/>
     </row>
     <row r="6" spans="1:6" ht="17.100000000000001" customHeight="1">
-      <c r="A6" s="183" t="s">
+      <c r="A6" s="151" t="s">
         <v>256</v>
       </c>
-      <c r="B6" s="183"/>
-      <c r="C6" s="183"/>
-      <c r="D6" s="183"/>
+      <c r="B6" s="151"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="151"/>
     </row>
     <row r="7" spans="1:6" ht="17.100000000000001" customHeight="1">
-      <c r="A7" s="180" t="s">
+      <c r="A7" s="170" t="s">
         <v>255</v>
       </c>
-      <c r="B7" s="181"/>
-      <c r="C7" s="181"/>
-      <c r="D7" s="181"/>
+      <c r="B7" s="171"/>
+      <c r="C7" s="171"/>
+      <c r="D7" s="171"/>
       <c r="E7" s="53"/>
       <c r="F7" s="54"/>
     </row>
     <row r="8" spans="1:6" ht="17.100000000000001" customHeight="1">
-      <c r="A8" s="183" t="s">
+      <c r="A8" s="151" t="s">
         <v>257</v>
       </c>
-      <c r="B8" s="183"/>
-      <c r="C8" s="183"/>
-      <c r="D8" s="183"/>
+      <c r="B8" s="151"/>
+      <c r="C8" s="151"/>
+      <c r="D8" s="151"/>
       <c r="E8" s="55"/>
       <c r="F8" s="54"/>
     </row>
     <row r="9" spans="1:6" ht="17.100000000000001" customHeight="1">
-      <c r="A9" s="183" t="s">
+      <c r="A9" s="151" t="s">
         <v>258</v>
       </c>
-      <c r="B9" s="183"/>
-      <c r="C9" s="183"/>
-      <c r="D9" s="183"/>
+      <c r="B9" s="151"/>
+      <c r="C9" s="151"/>
+      <c r="D9" s="151"/>
       <c r="E9" s="55"/>
       <c r="F9" s="54"/>
     </row>
     <row r="10" spans="1:6" ht="17.100000000000001" customHeight="1">
-      <c r="A10" s="163"/>
-      <c r="B10" s="158"/>
-      <c r="C10" s="158"/>
-      <c r="D10" s="158"/>
+      <c r="A10" s="165"/>
+      <c r="B10" s="154"/>
+      <c r="C10" s="154"/>
+      <c r="D10" s="154"/>
       <c r="E10" s="53"/>
       <c r="F10" s="54"/>
     </row>
     <row r="11" spans="1:6" ht="18.75">
-      <c r="A11" s="179" t="s">
+      <c r="A11" s="152" t="s">
         <v>225</v>
       </c>
-      <c r="B11" s="179"/>
-      <c r="C11" s="179"/>
-      <c r="D11" s="179"/>
+      <c r="B11" s="152"/>
+      <c r="C11" s="152"/>
+      <c r="D11" s="152"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A12" s="151" t="s">
+      <c r="A12" s="159" t="s">
         <v>230</v>
       </c>
-      <c r="B12" s="152"/>
-      <c r="C12" s="153"/>
+      <c r="B12" s="160"/>
+      <c r="C12" s="161"/>
       <c r="D12" s="61"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A13" s="151" t="s">
+      <c r="A13" s="159" t="s">
         <v>231</v>
       </c>
-      <c r="B13" s="152"/>
-      <c r="C13" s="153"/>
+      <c r="B13" s="160"/>
+      <c r="C13" s="161"/>
       <c r="D13" s="61"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A14" s="157"/>
-      <c r="B14" s="158"/>
-      <c r="C14" s="158"/>
-      <c r="D14" s="159"/>
+      <c r="A14" s="153"/>
+      <c r="B14" s="154"/>
+      <c r="C14" s="154"/>
+      <c r="D14" s="155"/>
     </row>
     <row r="15" spans="1:6" ht="16.350000000000001" customHeight="1">
-      <c r="A15" s="151" t="s">
+      <c r="A15" s="159" t="s">
         <v>232</v>
       </c>
-      <c r="B15" s="152"/>
-      <c r="C15" s="153"/>
+      <c r="B15" s="160"/>
+      <c r="C15" s="161"/>
       <c r="D15" s="61"/>
     </row>
     <row r="16" spans="1:6" ht="16.350000000000001" customHeight="1">
-      <c r="A16" s="151" t="s">
+      <c r="A16" s="159" t="s">
         <v>233</v>
       </c>
-      <c r="B16" s="152"/>
-      <c r="C16" s="153"/>
+      <c r="B16" s="160"/>
+      <c r="C16" s="161"/>
       <c r="D16" s="61"/>
     </row>
     <row r="17" spans="1:4" ht="16.350000000000001" customHeight="1">
-      <c r="A17" s="170"/>
-      <c r="B17" s="171"/>
-      <c r="C17" s="171"/>
-      <c r="D17" s="172"/>
+      <c r="A17" s="156"/>
+      <c r="B17" s="157"/>
+      <c r="C17" s="157"/>
+      <c r="D17" s="158"/>
     </row>
     <row r="18" spans="1:4" ht="16.350000000000001" customHeight="1">
-      <c r="A18" s="154" t="s">
+      <c r="A18" s="162" t="s">
         <v>234</v>
       </c>
-      <c r="B18" s="155"/>
-      <c r="C18" s="156"/>
+      <c r="B18" s="163"/>
+      <c r="C18" s="164"/>
       <c r="D18" s="62"/>
     </row>
     <row r="19" spans="1:4" ht="16.350000000000001" customHeight="1">
-      <c r="A19" s="154" t="s">
+      <c r="A19" s="162" t="s">
         <v>235</v>
       </c>
-      <c r="B19" s="155"/>
-      <c r="C19" s="156"/>
+      <c r="B19" s="163"/>
+      <c r="C19" s="164"/>
       <c r="D19" s="62"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="157"/>
-      <c r="B20" s="158"/>
-      <c r="C20" s="158"/>
-      <c r="D20" s="159"/>
+      <c r="A20" s="153"/>
+      <c r="B20" s="154"/>
+      <c r="C20" s="154"/>
+      <c r="D20" s="155"/>
     </row>
     <row r="21" spans="1:4" ht="16.350000000000001" customHeight="1">
-      <c r="A21" s="154" t="s">
+      <c r="A21" s="162" t="s">
         <v>236</v>
       </c>
-      <c r="B21" s="155"/>
-      <c r="C21" s="156"/>
+      <c r="B21" s="163"/>
+      <c r="C21" s="164"/>
       <c r="D21" s="56" t="e">
         <f>(D13-B3)/(D13-D12)*D18</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="154" t="s">
+      <c r="A22" s="162" t="s">
         <v>237</v>
       </c>
-      <c r="B22" s="155"/>
-      <c r="C22" s="156"/>
+      <c r="B22" s="163"/>
+      <c r="C22" s="164"/>
       <c r="D22" s="56" t="e">
         <f>(D3-D15)/(D16-D15)*D19</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16.350000000000001" customHeight="1">
-      <c r="A23" s="158"/>
-      <c r="B23" s="158"/>
-      <c r="C23" s="158"/>
-      <c r="D23" s="158"/>
+      <c r="A23" s="154"/>
+      <c r="B23" s="154"/>
+      <c r="C23" s="154"/>
+      <c r="D23" s="154"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A24" s="179" t="s">
+      <c r="A24" s="152" t="s">
         <v>226</v>
       </c>
-      <c r="B24" s="179"/>
-      <c r="C24" s="179"/>
-      <c r="D24" s="179"/>
+      <c r="B24" s="152"/>
+      <c r="C24" s="152"/>
+      <c r="D24" s="152"/>
     </row>
     <row r="25" spans="1:4" ht="16.350000000000001" customHeight="1">
-      <c r="A25" s="151" t="s">
+      <c r="A25" s="159" t="s">
         <v>230</v>
       </c>
-      <c r="B25" s="152"/>
-      <c r="C25" s="153"/>
+      <c r="B25" s="160"/>
+      <c r="C25" s="161"/>
       <c r="D25" s="61"/>
     </row>
     <row r="26" spans="1:4" ht="16.350000000000001" customHeight="1">
-      <c r="A26" s="151" t="s">
+      <c r="A26" s="159" t="s">
         <v>231</v>
       </c>
-      <c r="B26" s="152"/>
-      <c r="C26" s="153"/>
+      <c r="B26" s="160"/>
+      <c r="C26" s="161"/>
       <c r="D26" s="61"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A27" s="157"/>
-      <c r="B27" s="158"/>
-      <c r="C27" s="158"/>
-      <c r="D27" s="159"/>
+      <c r="A27" s="153"/>
+      <c r="B27" s="154"/>
+      <c r="C27" s="154"/>
+      <c r="D27" s="155"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A28" s="151" t="s">
+      <c r="A28" s="159" t="s">
         <v>232</v>
       </c>
-      <c r="B28" s="152"/>
-      <c r="C28" s="153"/>
+      <c r="B28" s="160"/>
+      <c r="C28" s="161"/>
       <c r="D28" s="61"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="151" t="s">
+      <c r="A29" s="159" t="s">
         <v>233</v>
       </c>
-      <c r="B29" s="152"/>
-      <c r="C29" s="153"/>
+      <c r="B29" s="160"/>
+      <c r="C29" s="161"/>
       <c r="D29" s="61"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A30" s="170"/>
-      <c r="B30" s="171"/>
-      <c r="C30" s="171"/>
-      <c r="D30" s="172"/>
+      <c r="A30" s="156"/>
+      <c r="B30" s="157"/>
+      <c r="C30" s="157"/>
+      <c r="D30" s="158"/>
     </row>
     <row r="31" spans="1:4" ht="16.350000000000001" customHeight="1">
-      <c r="A31" s="154" t="s">
+      <c r="A31" s="162" t="s">
         <v>238</v>
       </c>
-      <c r="B31" s="155"/>
-      <c r="C31" s="156"/>
+      <c r="B31" s="163"/>
+      <c r="C31" s="164"/>
       <c r="D31" s="62"/>
     </row>
     <row r="32" spans="1:4" ht="16.350000000000001" customHeight="1">
-      <c r="A32" s="154" t="s">
+      <c r="A32" s="162" t="s">
         <v>239</v>
       </c>
-      <c r="B32" s="155"/>
-      <c r="C32" s="156"/>
+      <c r="B32" s="163"/>
+      <c r="C32" s="164"/>
       <c r="D32" s="62"/>
     </row>
     <row r="33" spans="1:4" ht="16.350000000000001" customHeight="1">
-      <c r="A33" s="157"/>
-      <c r="B33" s="158"/>
-      <c r="C33" s="158"/>
-      <c r="D33" s="159"/>
+      <c r="A33" s="153"/>
+      <c r="B33" s="154"/>
+      <c r="C33" s="154"/>
+      <c r="D33" s="155"/>
     </row>
     <row r="34" spans="1:4" ht="16.350000000000001" customHeight="1">
-      <c r="A34" s="154" t="s">
+      <c r="A34" s="162" t="s">
         <v>240</v>
       </c>
-      <c r="B34" s="155"/>
-      <c r="C34" s="156"/>
+      <c r="B34" s="163"/>
+      <c r="C34" s="164"/>
       <c r="D34" s="56" t="e">
         <f>(D26-B3)/(D26-D25)*D31</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="16.350000000000001" customHeight="1">
-      <c r="A35" s="154" t="s">
+      <c r="A35" s="162" t="s">
         <v>241</v>
       </c>
-      <c r="B35" s="155"/>
-      <c r="C35" s="156"/>
+      <c r="B35" s="163"/>
+      <c r="C35" s="164"/>
       <c r="D35" s="56" t="e">
         <f>(D3-D28)/(D29-D28)*D32</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="16.350000000000001" customHeight="1">
-      <c r="A36" s="163"/>
-      <c r="B36" s="158"/>
-      <c r="C36" s="158"/>
-      <c r="D36" s="158"/>
+      <c r="A36" s="165"/>
+      <c r="B36" s="154"/>
+      <c r="C36" s="154"/>
+      <c r="D36" s="154"/>
     </row>
     <row r="37" spans="1:4" ht="16.350000000000001" customHeight="1">
-      <c r="A37" s="179" t="s">
+      <c r="A37" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="179"/>
-      <c r="C37" s="179"/>
-      <c r="D37" s="179"/>
+      <c r="B37" s="152"/>
+      <c r="C37" s="152"/>
+      <c r="D37" s="152"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="151" t="s">
+      <c r="A38" s="159" t="s">
         <v>230</v>
       </c>
-      <c r="B38" s="152"/>
-      <c r="C38" s="153"/>
+      <c r="B38" s="160"/>
+      <c r="C38" s="161"/>
       <c r="D38" s="61"/>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A39" s="151" t="s">
+      <c r="A39" s="159" t="s">
         <v>231</v>
       </c>
-      <c r="B39" s="152"/>
-      <c r="C39" s="153"/>
+      <c r="B39" s="160"/>
+      <c r="C39" s="161"/>
       <c r="D39" s="61"/>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A40" s="157"/>
-      <c r="B40" s="158"/>
-      <c r="C40" s="158"/>
-      <c r="D40" s="159"/>
+      <c r="A40" s="153"/>
+      <c r="B40" s="154"/>
+      <c r="C40" s="154"/>
+      <c r="D40" s="155"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="151" t="s">
+      <c r="A41" s="159" t="s">
         <v>232</v>
       </c>
-      <c r="B41" s="152"/>
-      <c r="C41" s="153"/>
+      <c r="B41" s="160"/>
+      <c r="C41" s="161"/>
       <c r="D41" s="61"/>
     </row>
     <row r="42" spans="1:4" ht="16.350000000000001" customHeight="1">
-      <c r="A42" s="151" t="s">
+      <c r="A42" s="159" t="s">
         <v>233</v>
       </c>
-      <c r="B42" s="152"/>
-      <c r="C42" s="153"/>
+      <c r="B42" s="160"/>
+      <c r="C42" s="161"/>
       <c r="D42" s="61"/>
     </row>
     <row r="43" spans="1:4" ht="16.350000000000001" customHeight="1">
-      <c r="A43" s="170"/>
-      <c r="B43" s="171"/>
-      <c r="C43" s="171"/>
-      <c r="D43" s="172"/>
+      <c r="A43" s="156"/>
+      <c r="B43" s="157"/>
+      <c r="C43" s="157"/>
+      <c r="D43" s="158"/>
     </row>
     <row r="44" spans="1:4" ht="16.350000000000001" customHeight="1">
-      <c r="A44" s="154" t="s">
+      <c r="A44" s="162" t="s">
         <v>242</v>
       </c>
-      <c r="B44" s="155"/>
-      <c r="C44" s="156"/>
+      <c r="B44" s="163"/>
+      <c r="C44" s="164"/>
       <c r="D44" s="62"/>
     </row>
     <row r="45" spans="1:4" ht="16.350000000000001" customHeight="1">
-      <c r="A45" s="154" t="s">
+      <c r="A45" s="162" t="s">
         <v>243</v>
       </c>
-      <c r="B45" s="155"/>
-      <c r="C45" s="156"/>
+      <c r="B45" s="163"/>
+      <c r="C45" s="164"/>
       <c r="D45" s="62"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="157"/>
-      <c r="B46" s="158"/>
-      <c r="C46" s="158"/>
-      <c r="D46" s="159"/>
+      <c r="A46" s="153"/>
+      <c r="B46" s="154"/>
+      <c r="C46" s="154"/>
+      <c r="D46" s="155"/>
     </row>
     <row r="47" spans="1:4" ht="16.350000000000001" customHeight="1">
-      <c r="A47" s="154" t="s">
+      <c r="A47" s="162" t="s">
         <v>244</v>
       </c>
-      <c r="B47" s="155"/>
-      <c r="C47" s="156"/>
+      <c r="B47" s="163"/>
+      <c r="C47" s="164"/>
       <c r="D47" s="56" t="e">
         <f>(D39-B3)/(D39-D38)*D44</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="16.350000000000001" customHeight="1">
-      <c r="A48" s="154" t="s">
+      <c r="A48" s="162" t="s">
         <v>245</v>
       </c>
-      <c r="B48" s="155"/>
-      <c r="C48" s="156"/>
+      <c r="B48" s="163"/>
+      <c r="C48" s="164"/>
       <c r="D48" s="56" t="e">
         <f>(D3-D41)/(D42-D41)*D45</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="16.350000000000001" customHeight="1">
-      <c r="A49" s="163"/>
-      <c r="B49" s="158"/>
-      <c r="C49" s="158"/>
-      <c r="D49" s="158"/>
+      <c r="A49" s="165"/>
+      <c r="B49" s="154"/>
+      <c r="C49" s="154"/>
+      <c r="D49" s="154"/>
     </row>
     <row r="50" spans="1:4" ht="16.350000000000001" customHeight="1">
-      <c r="A50" s="160" t="s">
+      <c r="A50" s="182" t="s">
         <v>227</v>
       </c>
-      <c r="B50" s="161"/>
-      <c r="C50" s="161"/>
-      <c r="D50" s="162"/>
+      <c r="B50" s="183"/>
+      <c r="C50" s="183"/>
+      <c r="D50" s="184"/>
     </row>
     <row r="51" spans="1:4" ht="16.350000000000001" customHeight="1">
-      <c r="A51" s="151" t="s">
+      <c r="A51" s="159" t="s">
         <v>230</v>
       </c>
-      <c r="B51" s="152"/>
-      <c r="C51" s="153"/>
+      <c r="B51" s="160"/>
+      <c r="C51" s="161"/>
       <c r="D51" s="61"/>
     </row>
     <row r="52" spans="1:4" ht="16.350000000000001" customHeight="1">
-      <c r="A52" s="151" t="s">
+      <c r="A52" s="159" t="s">
         <v>231</v>
       </c>
-      <c r="B52" s="152"/>
-      <c r="C52" s="153"/>
+      <c r="B52" s="160"/>
+      <c r="C52" s="161"/>
       <c r="D52" s="61"/>
     </row>
     <row r="53" spans="1:4" ht="16.350000000000001" customHeight="1">
-      <c r="A53" s="157"/>
-      <c r="B53" s="158"/>
-      <c r="C53" s="158"/>
-      <c r="D53" s="159"/>
+      <c r="A53" s="153"/>
+      <c r="B53" s="154"/>
+      <c r="C53" s="154"/>
+      <c r="D53" s="155"/>
     </row>
     <row r="54" spans="1:4" ht="16.350000000000001" customHeight="1">
-      <c r="A54" s="151" t="s">
+      <c r="A54" s="159" t="s">
         <v>232</v>
       </c>
-      <c r="B54" s="152"/>
-      <c r="C54" s="153"/>
+      <c r="B54" s="160"/>
+      <c r="C54" s="161"/>
       <c r="D54" s="61"/>
     </row>
     <row r="55" spans="1:4" ht="16.350000000000001" customHeight="1">
-      <c r="A55" s="151" t="s">
+      <c r="A55" s="159" t="s">
         <v>233</v>
       </c>
-      <c r="B55" s="152"/>
-      <c r="C55" s="153"/>
+      <c r="B55" s="160"/>
+      <c r="C55" s="161"/>
       <c r="D55" s="61"/>
     </row>
     <row r="56" spans="1:4" ht="16.350000000000001" customHeight="1">
-      <c r="A56" s="170"/>
-      <c r="B56" s="171"/>
-      <c r="C56" s="171"/>
-      <c r="D56" s="172"/>
+      <c r="A56" s="156"/>
+      <c r="B56" s="157"/>
+      <c r="C56" s="157"/>
+      <c r="D56" s="158"/>
     </row>
     <row r="57" spans="1:4" ht="16.350000000000001" customHeight="1">
-      <c r="A57" s="154" t="s">
+      <c r="A57" s="162" t="s">
         <v>246</v>
       </c>
-      <c r="B57" s="155"/>
-      <c r="C57" s="156"/>
+      <c r="B57" s="163"/>
+      <c r="C57" s="164"/>
       <c r="D57" s="62"/>
     </row>
     <row r="58" spans="1:4" ht="16.350000000000001" customHeight="1">
-      <c r="A58" s="154" t="s">
+      <c r="A58" s="162" t="s">
         <v>247</v>
       </c>
-      <c r="B58" s="155"/>
-      <c r="C58" s="156"/>
+      <c r="B58" s="163"/>
+      <c r="C58" s="164"/>
       <c r="D58" s="62"/>
     </row>
     <row r="59" spans="1:4" ht="16.350000000000001" customHeight="1">
-      <c r="A59" s="157"/>
-      <c r="B59" s="158"/>
-      <c r="C59" s="158"/>
-      <c r="D59" s="159"/>
+      <c r="A59" s="153"/>
+      <c r="B59" s="154"/>
+      <c r="C59" s="154"/>
+      <c r="D59" s="155"/>
     </row>
     <row r="60" spans="1:4" ht="16.350000000000001" customHeight="1">
-      <c r="A60" s="154" t="s">
+      <c r="A60" s="162" t="s">
         <v>248</v>
       </c>
-      <c r="B60" s="155"/>
-      <c r="C60" s="156"/>
+      <c r="B60" s="163"/>
+      <c r="C60" s="164"/>
       <c r="D60" s="56" t="e">
         <f>(D52-B3)/(D52-D51)*D57</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A61" s="154" t="s">
+      <c r="A61" s="162" t="s">
         <v>249</v>
       </c>
-      <c r="B61" s="155"/>
-      <c r="C61" s="156"/>
+      <c r="B61" s="163"/>
+      <c r="C61" s="164"/>
       <c r="D61" s="56" t="e">
         <f>(D3-D54)/(D55-D54)*D58</f>
         <v>#DIV/0!</v>
@@ -6992,88 +6997,88 @@
       <c r="D63" s="175"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="151" t="s">
+      <c r="A64" s="159" t="s">
         <v>230</v>
       </c>
-      <c r="B64" s="152"/>
-      <c r="C64" s="153"/>
+      <c r="B64" s="160"/>
+      <c r="C64" s="161"/>
       <c r="D64" s="61"/>
     </row>
     <row r="65" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A65" s="151" t="s">
+      <c r="A65" s="159" t="s">
         <v>231</v>
       </c>
-      <c r="B65" s="152"/>
-      <c r="C65" s="153"/>
+      <c r="B65" s="160"/>
+      <c r="C65" s="161"/>
       <c r="D65" s="61"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="164"/>
-      <c r="B66" s="165"/>
-      <c r="C66" s="165"/>
-      <c r="D66" s="166"/>
+      <c r="A66" s="176"/>
+      <c r="B66" s="177"/>
+      <c r="C66" s="177"/>
+      <c r="D66" s="178"/>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="151" t="s">
+      <c r="A67" s="159" t="s">
         <v>232</v>
       </c>
-      <c r="B67" s="152"/>
-      <c r="C67" s="153"/>
+      <c r="B67" s="160"/>
+      <c r="C67" s="161"/>
       <c r="D67" s="61"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="151" t="s">
+      <c r="A68" s="159" t="s">
         <v>233</v>
       </c>
-      <c r="B68" s="152"/>
-      <c r="C68" s="153"/>
+      <c r="B68" s="160"/>
+      <c r="C68" s="161"/>
       <c r="D68" s="61"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="167"/>
-      <c r="B69" s="168"/>
-      <c r="C69" s="168"/>
-      <c r="D69" s="169"/>
+      <c r="A69" s="179"/>
+      <c r="B69" s="180"/>
+      <c r="C69" s="180"/>
+      <c r="D69" s="181"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="154" t="s">
+      <c r="A70" s="162" t="s">
         <v>250</v>
       </c>
-      <c r="B70" s="155"/>
-      <c r="C70" s="156"/>
+      <c r="B70" s="163"/>
+      <c r="C70" s="164"/>
       <c r="D70" s="62"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="154" t="s">
+      <c r="A71" s="162" t="s">
         <v>251</v>
       </c>
-      <c r="B71" s="155"/>
-      <c r="C71" s="156"/>
+      <c r="B71" s="163"/>
+      <c r="C71" s="164"/>
       <c r="D71" s="62"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="164"/>
-      <c r="B72" s="165"/>
-      <c r="C72" s="165"/>
-      <c r="D72" s="166"/>
+      <c r="A72" s="176"/>
+      <c r="B72" s="177"/>
+      <c r="C72" s="177"/>
+      <c r="D72" s="178"/>
     </row>
     <row r="73" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A73" s="154" t="s">
+      <c r="A73" s="162" t="s">
         <v>252</v>
       </c>
-      <c r="B73" s="155"/>
-      <c r="C73" s="156"/>
+      <c r="B73" s="163"/>
+      <c r="C73" s="164"/>
       <c r="D73" s="57" t="e">
         <f>(D65-B3)/(D65-D64)*D70</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A74" s="154" t="s">
+      <c r="A74" s="162" t="s">
         <v>253</v>
       </c>
-      <c r="B74" s="155"/>
-      <c r="C74" s="156"/>
+      <c r="B74" s="163"/>
+      <c r="C74" s="164"/>
       <c r="D74" s="57" t="e">
         <f>(D3-D67)/(D68-D67)*D71</f>
         <v>#DIV/0!</v>
@@ -7095,15 +7100,54 @@
   </sheetData>
   <sheetProtection password="8E9F" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="73">
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A6:D6"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A36:D36"/>
@@ -7120,54 +7164,15 @@
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A38:C38"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7180,7 +7185,7 @@
   <sheetPr codeName="Planilha3"/>
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -7194,15 +7199,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.2" customHeight="1">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="152" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
-      <c r="F1" s="179"/>
-      <c r="G1" s="179"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
     </row>
     <row r="2" spans="1:7" ht="18.2" customHeight="1">
       <c r="A2" s="191" t="s">
@@ -7637,11 +7642,11 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
       <c r="A8" s="64"/>
-      <c r="B8" s="96" t="s">
+      <c r="B8" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
+      <c r="C8" s="147"/>
+      <c r="D8" s="147"/>
       <c r="E8" s="185" t="s">
         <v>21</v>
       </c>
@@ -7915,15 +7920,15 @@
     </row>
     <row r="23" spans="1:7" ht="16.350000000000001" customHeight="1"/>
     <row r="24" spans="1:7" ht="32.25" customHeight="1">
-      <c r="A24" s="127" t="s">
+      <c r="A24" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="127"/>
-      <c r="C24" s="127"/>
-      <c r="D24" s="127"/>
-      <c r="E24" s="127"/>
-      <c r="F24" s="127"/>
-      <c r="G24" s="127"/>
+      <c r="B24" s="107"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="107"/>
     </row>
     <row r="27" spans="1:7" ht="29.85" customHeight="1"/>
     <row r="29" spans="1:7" ht="16.350000000000001" customHeight="1"/>
@@ -8015,15 +8020,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="43.5" customHeight="1">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="167" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="177"/>
-      <c r="C1" s="177"/>
-      <c r="D1" s="177"/>
-      <c r="E1" s="177"/>
-      <c r="F1" s="177"/>
-      <c r="G1" s="178"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="169"/>
     </row>
     <row r="2" spans="1:7" s="20" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="192" t="s">
@@ -8046,21 +8051,21 @@
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7" s="20" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="154" t="s">
+      <c r="A4" s="162" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="155"/>
-      <c r="C4" s="155"/>
-      <c r="D4" s="156"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="164"/>
       <c r="E4" s="66"/>
     </row>
     <row r="5" spans="1:7" s="20" customFormat="1" ht="15">
-      <c r="A5" s="154" t="s">
+      <c r="A5" s="162" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="155"/>
-      <c r="C5" s="155"/>
-      <c r="D5" s="156"/>
+      <c r="B5" s="163"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="164"/>
       <c r="E5" s="63">
         <f>ROUND(('CPPD 01-18'!F23-'CPPD 01-18'!C23)/31,0)</f>
         <v>100</v>
@@ -8080,16 +8085,16 @@
     </row>
     <row r="8" spans="1:7" s="20" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="64"/>
-      <c r="B8" s="96" t="s">
+      <c r="B8" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96" t="s">
+      <c r="C8" s="147"/>
+      <c r="D8" s="147"/>
+      <c r="E8" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="96"/>
-      <c r="G8" s="96"/>
+      <c r="F8" s="147"/>
+      <c r="G8" s="147"/>
     </row>
     <row r="9" spans="1:7" s="20" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="74" t="s">
@@ -8249,16 +8254,16 @@
     </row>
     <row r="17" spans="1:7" s="20" customFormat="1" ht="15.75" customHeight="1">
       <c r="A17" s="64"/>
-      <c r="B17" s="96" t="s">
+      <c r="B17" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96" t="s">
+      <c r="C17" s="147"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="147"/>
     </row>
     <row r="18" spans="1:7" s="20" customFormat="1" ht="15">
       <c r="A18" s="74" t="s">
@@ -8372,15 +8377,15 @@
     </row>
     <row r="23" spans="1:7" ht="16.350000000000001" customHeight="1"/>
     <row r="24" spans="1:7" ht="33.75" customHeight="1">
-      <c r="A24" s="127" t="s">
+      <c r="A24" s="107" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="127"/>
-      <c r="C24" s="127"/>
-      <c r="D24" s="127"/>
-      <c r="E24" s="127"/>
-      <c r="F24" s="127"/>
-      <c r="G24" s="127"/>
+      <c r="B24" s="107"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="107"/>
     </row>
     <row r="27" spans="1:7" ht="29.85" customHeight="1"/>
     <row r="29" spans="1:7" ht="16.350000000000001" customHeight="1"/>
@@ -8472,15 +8477,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="41.25" customHeight="1">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="167" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="177"/>
-      <c r="C1" s="177"/>
-      <c r="D1" s="177"/>
-      <c r="E1" s="177"/>
-      <c r="F1" s="177"/>
-      <c r="G1" s="178"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="169"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="192" t="s">
@@ -8530,16 +8535,16 @@
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="A8" s="64"/>
-      <c r="B8" s="96" t="s">
+      <c r="B8" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96" t="s">
+      <c r="C8" s="147"/>
+      <c r="D8" s="147"/>
+      <c r="E8" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="96"/>
-      <c r="G8" s="96"/>
+      <c r="F8" s="147"/>
+      <c r="G8" s="147"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1">
       <c r="A9" s="74" t="s">
@@ -8701,16 +8706,16 @@
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="64"/>
-      <c r="B17" s="96" t="s">
+      <c r="B17" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96" t="s">
+      <c r="C17" s="147"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="147"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="74" t="s">
